--- a/data/睿博士.xlsx
+++ b/data/睿博士.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="659">
   <si>
     <t>页面名称</t>
   </si>
@@ -1915,6 +1915,9 @@
   </si>
   <si>
     <t>com.zwcode.p6slite:id/back</t>
+  </si>
+  <si>
+    <t>添加结果</t>
   </si>
   <si>
     <t>持续到页面跳转</t>
@@ -12061,9 +12064,9 @@
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12214,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>405</v>
       </c>
@@ -12346,14 +12349,14 @@
         <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>629</v>
       </c>
       <c r="C15" s="2"/>
       <c r="F15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -12361,17 +12364,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>494</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="F16" t="s">
-        <v>629</v>
-      </c>
-      <c r="G16">
-        <v>30</v>
+        <v>619</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -12382,10 +12384,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>468</v>
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>619</v>
@@ -12399,13 +12404,13 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
         <v>619</v>
@@ -12416,16 +12421,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>619</v>
@@ -12439,13 +12444,10 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="F20" t="s">
         <v>619</v>
@@ -12456,10 +12458,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>468</v>
@@ -12476,10 +12478,13 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>468</v>
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F22" t="s">
         <v>619</v>
@@ -12488,18 +12493,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" ht="14.25" spans="1:8">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>468</v>
       </c>
       <c r="F23" t="s">
         <v>619</v>
@@ -12513,10 +12515,10 @@
         <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>468</v>
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F24" t="s">
         <v>619</v>
@@ -12525,15 +12527,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F25" t="s">
         <v>619</v>
@@ -12547,13 +12552,13 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>631</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
         <v>619</v>
@@ -12569,11 +12574,9 @@
       <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>630</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
         <v>619</v>
@@ -12584,47 +12587,47 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" t="s">
-        <v>619</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" ht="14.25" spans="1:8">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" t="s">
+        <v>626</v>
+      </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:8">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="E30" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="F30" t="s">
-        <v>626</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30">
         <v>1</v>
       </c>
@@ -12634,15 +12637,15 @@
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>631</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>632</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>632</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="G31"/>
       <c r="H31">
         <v>1</v>
       </c>
@@ -12652,15 +12655,17 @@
         <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>632</v>
-      </c>
-      <c r="G32"/>
+        <v>619</v>
+      </c>
       <c r="H32">
         <v>1</v>
       </c>
@@ -12670,13 +12675,10 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>631</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="F33" t="s">
         <v>619</v>
@@ -12687,16 +12689,14 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>632</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>468</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="F34" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -12704,10 +12704,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>634</v>
       </c>
       <c r="C35" s="2"/>
       <c r="F35" t="s">
@@ -12719,10 +12719,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B36" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C36" s="2"/>
       <c r="F36" t="s">
@@ -12734,31 +12734,36 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B37" t="s">
-        <v>634</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E37" t="s">
+        <v>637</v>
+      </c>
       <c r="F37" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" customFormat="1" spans="1:8">
       <c r="A38" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B38" t="s">
         <v>574</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E38" t="s">
-        <v>636</v>
+        <v>326</v>
       </c>
       <c r="F38" t="s">
         <v>619</v>
@@ -12767,59 +12772,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:8">
+    <row r="39" customFormat="1" spans="1:9">
       <c r="A39" t="s">
-        <v>634</v>
+        <v>574</v>
       </c>
       <c r="B39" t="s">
-        <v>574</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="E39" t="s">
-        <v>326</v>
+        <v>556</v>
       </c>
       <c r="F39" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:9">
+      <c r="I39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:8">
       <c r="A40" t="s">
         <v>574</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>556</v>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s">
+        <v>639</v>
       </c>
       <c r="F40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:8">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="B41" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" t="s">
-        <v>638</v>
-      </c>
       <c r="F41" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B42" t="s">
         <v>121</v>
@@ -12842,31 +12842,33 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>639</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F43" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" ht="14.25" spans="1:8">
       <c r="A44" t="s">
         <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>639</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>119</v>
+        <v>468</v>
       </c>
       <c r="F44" t="s">
         <v>619</v>
@@ -12883,7 +12885,10 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>468</v>
+        <v>638</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="F45" t="s">
         <v>619</v>
@@ -12892,21 +12897,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>326</v>
+        <v>629</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>619</v>
+        <v>630</v>
+      </c>
+      <c r="G46">
+        <v>180</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -12914,78 +12922,76 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>629</v>
       </c>
       <c r="B47" t="s">
+        <v>414</v>
+      </c>
+      <c r="F47" t="s">
+        <v>626</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:8">
+      <c r="A48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B48" t="s">
         <v>126</v>
       </c>
-      <c r="F47" t="s">
-        <v>629</v>
-      </c>
-      <c r="G47">
-        <v>120</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
+        <v>626</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>414</v>
       </c>
-      <c r="F48" t="s">
-        <v>629</v>
-      </c>
-      <c r="G48">
-        <v>120</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>126</v>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" t="s">
+        <v>427</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>414</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>426</v>
-      </c>
-      <c r="E50" t="s">
-        <v>427</v>
+        <v>343</v>
       </c>
       <c r="F50" t="s">
-        <v>619</v>
+        <v>343</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" customFormat="1" spans="1:8">
       <c r="A51" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
         <v>343</v>
@@ -13049,16 +13055,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B56" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C56" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E56" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F56" t="s">
         <v>619</v>
@@ -13069,13 +13075,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B57" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C57" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E57" t="s">
         <v>326</v>
@@ -13280,10 +13286,10 @@
         <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F69" t="s">
         <v>619</v>
@@ -13300,7 +13306,7 @@
         <v>320</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F70" t="s">
         <v>619</v>
@@ -13317,7 +13323,7 @@
         <v>328</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>328</v>
@@ -13354,14 +13360,14 @@
         <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -13375,7 +13381,7 @@
         <v>168</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s">
@@ -13393,7 +13399,7 @@
         <v>168</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F75" t="s">
         <v>619</v>
@@ -13410,7 +13416,7 @@
         <v>168</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F76" t="s">
         <v>619</v>
@@ -13427,7 +13433,7 @@
         <v>168</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F77" t="s">
         <v>619</v>
@@ -13478,7 +13484,7 @@
         <v>168</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F80" t="s">
         <v>619</v>
@@ -13546,7 +13552,7 @@
         <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F84" t="s">
         <v>619</v>
@@ -13623,7 +13629,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F88" t="s">
         <v>619</v>
@@ -13637,10 +13643,10 @@
         <v>338</v>
       </c>
       <c r="B89" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>344</v>
@@ -13660,7 +13666,7 @@
         <v>338</v>
       </c>
       <c r="B90" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>525</v>
@@ -13704,7 +13710,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F92" t="s">
         <v>619</v>
@@ -13795,7 +13801,7 @@
         <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F97" t="s">
         <v>619</v>
@@ -13832,7 +13838,7 @@
         <v>373</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>326</v>
@@ -13856,7 +13862,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -13873,7 +13879,7 @@
         <v>380</v>
       </c>
       <c r="F101" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -13887,7 +13893,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F102" t="s">
         <v>619</v>
@@ -13932,13 +13938,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B105" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F105" t="s">
         <v>619</v>
@@ -13949,13 +13955,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B106" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F106" t="s">
         <v>619</v>
@@ -13986,13 +13992,13 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E108" t="s">
         <v>654</v>
-      </c>
-      <c r="E108" t="s">
-        <v>653</v>
       </c>
       <c r="F108" t="s">
         <v>619</v>
@@ -14006,10 +14012,10 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>326</v>
@@ -14063,7 +14069,7 @@
         <v>498</v>
       </c>
       <c r="B112" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C112" t="s">
         <v>505</v>
@@ -14080,7 +14086,7 @@
         <v>308</v>
       </c>
       <c r="B113" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C113" t="s">
         <v>316</v>
@@ -14100,10 +14106,10 @@
         <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E114" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F114" t="s">
         <v>619</v>
@@ -14120,13 +14126,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,contentDescMatches"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F46 F47 F48 F51 F107 F49:F50 F110:F111">
+      <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,持续到页面跳转,截图"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,获取文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F107 F15:F16 F47:F51 F110:F111">
-      <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,持续到页面跳转,截图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F8:F11 F13:F14 F17:F46 F52:F72 F74:F106 F108:F109 F112:F114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F8:F11 F13:F14 F16:F45 F52:F72 F74:F106 F108:F109 F112:F114">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/睿博士.xlsx
+++ b/data/睿博士.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="660">
   <si>
     <t>页面名称</t>
   </si>
@@ -1906,6 +1906,9 @@
   </si>
   <si>
     <t>非必选按钮</t>
+  </si>
+  <si>
+    <t>可变文本</t>
   </si>
   <si>
     <t>空值</t>
@@ -12064,9 +12067,9 @@
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12217,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="14.25" spans="1:8">
       <c r="A8" t="s">
         <v>405</v>
       </c>
@@ -12228,7 +12231,7 @@
         <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -12264,7 +12267,7 @@
       <c r="C10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -12293,7 +12296,7 @@
         <v>543</v>
       </c>
       <c r="B12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>571</v>
@@ -12335,7 +12338,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F14" t="s">
         <v>619</v>
@@ -12349,11 +12352,11 @@
         <v>494</v>
       </c>
       <c r="B15" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C15" s="2"/>
       <c r="F15" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G15">
         <v>180</v>
@@ -12555,7 +12558,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>93</v>
@@ -12594,6 +12597,9 @@
       </c>
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="F28" t="s">
+        <v>627</v>
+      </c>
       <c r="H28">
         <v>1</v>
       </c>
@@ -12608,7 +12614,7 @@
       <c r="C29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -12619,13 +12625,13 @@
         <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30">
@@ -12637,13 +12643,13 @@
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G31"/>
       <c r="H31">
@@ -12655,7 +12661,7 @@
         <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>111</v>
@@ -12689,14 +12695,14 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B34" t="s">
         <v>116</v>
       </c>
       <c r="C34" s="2"/>
       <c r="F34" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -12704,14 +12710,14 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B35" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C35" s="2"/>
       <c r="F35" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -12719,14 +12725,14 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C36" s="2"/>
       <c r="F36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -12734,16 +12740,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B37" t="s">
         <v>574</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E37" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F37" t="s">
         <v>619</v>
@@ -12754,13 +12760,13 @@
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B38" t="s">
         <v>574</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E38" t="s">
         <v>326</v>
@@ -12783,7 +12789,7 @@
         <v>556</v>
       </c>
       <c r="F39" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -12801,7 +12807,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F40" t="s">
         <v>619</v>
@@ -12812,14 +12818,14 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B41" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="2"/>
       <c r="F41" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -12827,14 +12833,14 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B42" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="2"/>
       <c r="F42" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -12845,7 +12851,7 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>111</v>
@@ -12885,7 +12891,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>326</v>
@@ -12902,7 +12908,7 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -12911,7 +12917,7 @@
         <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G46">
         <v>180</v>
@@ -12922,13 +12928,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B47" t="s">
         <v>414</v>
       </c>
       <c r="F47" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G47"/>
       <c r="H47">
@@ -12937,13 +12943,13 @@
     </row>
     <row r="48" customFormat="1" spans="1:8">
       <c r="A48" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B48" t="s">
         <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -13055,16 +13061,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B56" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C56" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E56" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F56" t="s">
         <v>619</v>
@@ -13075,13 +13081,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B57" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C57" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E57" t="s">
         <v>326</v>
@@ -13286,10 +13292,10 @@
         <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F69" t="s">
         <v>619</v>
@@ -13306,7 +13312,7 @@
         <v>320</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F70" t="s">
         <v>619</v>
@@ -13323,7 +13329,7 @@
         <v>328</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>328</v>
@@ -13360,14 +13366,14 @@
         <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>514</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -13381,7 +13387,7 @@
         <v>168</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s">
@@ -13399,7 +13405,7 @@
         <v>168</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F75" t="s">
         <v>619</v>
@@ -13416,7 +13422,7 @@
         <v>168</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F76" t="s">
         <v>619</v>
@@ -13433,7 +13439,7 @@
         <v>168</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F77" t="s">
         <v>619</v>
@@ -13484,7 +13490,7 @@
         <v>168</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F80" t="s">
         <v>619</v>
@@ -13552,7 +13558,7 @@
         <v>168</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F84" t="s">
         <v>619</v>
@@ -13629,7 +13635,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F88" t="s">
         <v>619</v>
@@ -13643,10 +13649,10 @@
         <v>338</v>
       </c>
       <c r="B89" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>344</v>
@@ -13666,7 +13672,7 @@
         <v>338</v>
       </c>
       <c r="B90" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>525</v>
@@ -13710,7 +13716,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F92" t="s">
         <v>619</v>
@@ -13801,7 +13807,7 @@
         <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F97" t="s">
         <v>619</v>
@@ -13838,7 +13844,7 @@
         <v>373</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>326</v>
@@ -13862,7 +13868,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -13879,7 +13885,7 @@
         <v>380</v>
       </c>
       <c r="F101" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -13893,7 +13899,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F102" t="s">
         <v>619</v>
@@ -13938,13 +13944,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B105" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F105" t="s">
         <v>619</v>
@@ -13955,13 +13961,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B106" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F106" t="s">
         <v>619</v>
@@ -13992,13 +13998,13 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E108" t="s">
         <v>655</v>
-      </c>
-      <c r="E108" t="s">
-        <v>654</v>
       </c>
       <c r="F108" t="s">
         <v>619</v>
@@ -14012,10 +14018,10 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>326</v>
@@ -14069,7 +14075,7 @@
         <v>498</v>
       </c>
       <c r="B112" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C112" t="s">
         <v>505</v>
@@ -14086,7 +14092,7 @@
         <v>308</v>
       </c>
       <c r="B113" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C113" t="s">
         <v>316</v>
@@ -14106,10 +14112,10 @@
         <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E114" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F114" t="s">
         <v>619</v>
@@ -14119,9 +14125,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,非必选按钮"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8 F39">
+      <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,可变文本"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,contentDescMatches"</formula1>
@@ -14132,7 +14141,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值,获取文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F8:F11 F13:F14 F16:F45 F52:F72 F74:F106 F108:F109 F112:F114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F9:F11 F13:F14 F16:F38 F40:F45 F52:F72 F74:F106 F108:F109 F112:F114">
       <formula1>"按钮, 文本框, 勾选框, 单选按钮,空值"</formula1>
     </dataValidation>
   </dataValidations>
